--- a/example/survey.xlsx
+++ b/example/survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvio.baldino/Desktop/Magnolia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elmir/Desktop/Externship/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8543DF1F-2EEE-BC4E-B338-07516E87DDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3433D299-BD61-4A41-BA7D-24B1BCB2132A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1980" windowWidth="27640" windowHeight="16940" xr2:uid="{BF6ECDE9-4F29-324B-882D-A10DEA73B3D6}"/>
+    <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{BF6ECDE9-4F29-324B-882D-A10DEA73B3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,11 +452,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028B4C26-3A5E-764D-A448-2582126CA781}">
   <dimension ref="A1:K208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
